--- a/medicine/Handicap/Arthrite/Arthrite.xlsx
+++ b/medicine/Handicap/Arthrite/Arthrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arthrite (du grec arthron : « articulation ») est une inflammation aiguë ou chronique des articulations. Elle ne désigne pas la pathologie répertoriée sous le nom d’arthrose, mais un signe clinique associé à de nombreuses maladies articulaires.
 Son origine peut être :
 rhumatismale (exemple : l’arthrite rhumatoïde) ;
-infectieuse (exemple : arthrite de Lyme[1]).
+infectieuse (exemple : arthrite de Lyme).
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si une seule articulation est atteinte, on parle de monoarthrite, lorsque deux, trois ou quatre articulations sont touchées, d’oligoarthrite, et au-delà, de polyarthrite. On appelle « acropolyarthrites » les arthrites qui touchent les articulations distales (loin de la racine) des membres (mains, pieds), « polyarthrites rhizoméliques » les arthrites qui touchent les racines des membres (épaules, hanches), « spondylarthropathies » les arthrites des membres qui s’associent à des atteintes inflammatoires de la colonne vertébrale ou des articulations sacro-iliaques.
-Par extension, quand l’inflammation touche le ligament alvéolo-dentaire, on parle aussi d’arthrite dentaire[2].
+Par extension, quand l’inflammation touche le ligament alvéolo-dentaire, on parle aussi d’arthrite dentaire.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Pronostic, gravité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une maladie généralement bénigne, mais qui peut être très invalidante.
 </t>
@@ -577,20 +593,22 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon le nombre d'articulations touchées, on distingue :
 la monoarthrite (une seule articulation) ;
 l’oligoarthrite qui ne touche qu'un nombre réduit d'articulations (2 ou 3) ;
 la polyarthrite qui touche plusieurs articulations.
 Parmi les monoarthrites on peut notamment retenir :
-l’arthrite micro-cristalline[3], dont :
+l’arthrite micro-cristalline, dont :
 L’arthrite goutteuse ou goutte (cristaux d'urate de sodium),
 La chondrocalcinose (cristaux de pyrophosphate de calcium),
 l’arthrite post-traumatique.
 On parle aussi :
 d’arthrite infectieuse ou arthrite septique (qui peut être bactérienne, virale ou mycosique), avec par exemple
-l’arthrite de Lyme (conséquence d'une borréliose) ; 10 % des patients développent une arthrite chronique ou récurrente malgré le traitement antibiotique[4] ;
+l’arthrite de Lyme (conséquence d'une borréliose) ; 10 % des patients développent une arthrite chronique ou récurrente malgré le traitement antibiotique ;
 l’arthrite réactionnelle pouvant par exemple apparaître en réaction à une infection par la bactérie Yersinia ; (Yersiniose)) ;
 de polyarthrite pour décrire des atteintes articulaires multiples, mais qui par usage impropre désigne le plus souvent la polyarthrite rhumatoïde (PR) ;
 d’arthrite psoriatique ;
@@ -623,7 +641,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>douleur au niveau des tendons (enflammés), à l'effort (seulement en début d’effort, puis disparaissant avec l'échauffement en cas d'inflammation légère) ;
 élancements même au repos ou douleur chronique dans les cas plus graves, avec éventuellement :
@@ -657,7 +677,9 @@
           <t>Prise en charge « orthopédique » de lésion(s) articulaire(s) notable(s) de type rhumatisme sévère</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>repos (avec immobilisation de l’articulation, le coude et l’épaule par exemple pour le Tennis Elbow), ou dans les cas plus graves :
 kinésithérapie ;
@@ -692,7 +714,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Près de 10 % de la population, quel que soit le pays, serait touchée par une forme d’arthrite [réf. nécessaire].
 </t>
@@ -723,7 +747,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que de causes multiples, l'arthrite peut avoir pour conséquence ultime : 
 la détérioration des surfaces articulaires ;
@@ -758,7 +784,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les sportifs, une arthrite peut être associée à une tendinite.[réf. nécessaire]
 </t>
